--- a/assets/files/direcciones.xlsx
+++ b/assets/files/direcciones.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\INSEZAC\Archivos de proyecto\Catalogos originales\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Titular</t>
-  </si>
-  <si>
-    <t>COMISIÓN DE MEJORA REGULATORIA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>DIRECCIÓN DE AGROINDUSTRIA</t>
   </si>
@@ -53,9 +36,6 @@
     <t>DIRECCIÓN DE FINANCIAMIENTO</t>
   </si>
   <si>
-    <t>DIRECCIÓN DE FOMENTO A LA CALIDAD     ARTESANAL</t>
-  </si>
-  <si>
     <t>DIRECCIÓN DE INDUSTRIA</t>
   </si>
   <si>
@@ -71,12 +51,6 @@
     <t>DIRECCIÓN DE TECNOLOGÍAS DE LA INFORMACIÓN</t>
   </si>
   <si>
-    <t>DIRECCIÓN DE TRABAJO Y PREVISIÓN SOCIAL</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEINFRAESTRUCTURA</t>
-  </si>
-  <si>
     <t>DIRECCIÓN DEL CENTRO DE INVESTIGACIÓN Y EXPERIMENTACIÓN EN ARTE POPULAR</t>
   </si>
   <si>
@@ -86,12 +60,6 @@
     <t>DIRECCIÓN PARA EL DESARROLLO EMPRESARIAL Y DE EMPRENDEDORES</t>
   </si>
   <si>
-    <t>DIRRECIÓN DE PROGRAMAS. PROYECTOS Y FORTALECIMIENTO ARTESANAL</t>
-  </si>
-  <si>
-    <t>SUBSECRETARÍA DE DESARROLLO ARTESANAL</t>
-  </si>
-  <si>
     <t>SUBSECRETARÍA DE FINANCIAMIENTO</t>
   </si>
   <si>
@@ -101,20 +69,224 @@
     <t>SUBSECRETARÍA DE INVERSIÓN Y FOMENTO INDUSTRIAL</t>
   </si>
   <si>
-    <t>SUBSECRETARÍA DEL SERVICIO NACIONAL DE  EMPLEO</t>
-  </si>
-  <si>
-    <t>Arturo Ramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripcion de Direccion </t>
+    <t>COORDINACIÓN ADMINISTRATIVA</t>
+  </si>
+  <si>
+    <t>UNIDAD DE PLANEACIÓN Y ESTADÍSTICA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE RELACIONES PÚBLICAS</t>
+  </si>
+  <si>
+    <t>ÓRGANO INTERNO DE CONTROL</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE COMUNICACIÓN SOCIAL</t>
+  </si>
+  <si>
+    <t>UNIDAD DE TRANSPARENCIA</t>
+  </si>
+  <si>
+    <t>SECRETARIO</t>
+  </si>
+  <si>
+    <t>SUBSECRETARÍA DEL DESARROLLO ARTESANAL</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE FOMENTO A LA CALIDAD ARTESANAL</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE PROGRAMAS, PROYECTOS Y FORTALECIMIENTO ARTESANAL</t>
+  </si>
+  <si>
+    <t>SUBSECRETARÍA DE COMPETITIVIDAD Y DESARROLLO EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE INFRAESTRUCTURA</t>
+  </si>
+  <si>
+    <t>SUBSECRETARÍA DEL SERVICIO NACIONAL DE EMPLEO</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE UNIDADES REGIONALES</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE VINCULACIÓN LABORAL</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE APOYOS FINANCIEROS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE MOVILIDAD LABORAL</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE CONTRALORÍA SOCIAL Y ASESORÍA JURÍDICA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE FOMENTO AL AUTOEMPLEO</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE INFORMACIÓN OCUPACIONAL</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE DESARROLLO HUMANO Y ADMINISTRACIÓN DE RECURSOS</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL TRABAJO Y PREVENSIÓN SOCIAL</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN JURÍDICA</t>
+  </si>
+  <si>
+    <t>SECRETARIA TÉCNICA</t>
+  </si>
+  <si>
+    <t>ZAYRA VICTORIA HERNANDEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>CARLOS FERNANDO BARCENA POUS</t>
+  </si>
+  <si>
+    <t>ROSA ELVIRA CAMPOS ALVAREZ</t>
+  </si>
+  <si>
+    <t>VACANTE</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>SERGIO HUMBERTO PALOMO JUAREZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GILBERTO CASAS </t>
+  </si>
+  <si>
+    <t>CLISERIO DEL REAL HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARGARITA QUIROZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>SECRETARIA PARTICULAR</t>
+  </si>
+  <si>
+    <t>MARIA HERRERA AGUILAR</t>
+  </si>
+  <si>
+    <t>YENI MARLEN HERNANDEZ DAVILA</t>
+  </si>
+  <si>
+    <t>ELVIRA LARA HERRERA</t>
+  </si>
+  <si>
+    <t>MARICRUZ GONZALEZ RUVALCABA</t>
+  </si>
+  <si>
+    <t>CLAUDIA NIETO SALAS</t>
+  </si>
+  <si>
+    <t>DIRECCION DEL CENTRO PLATERO</t>
+  </si>
+  <si>
+    <t>ANA GABRIELA SALAZAR GARCIA</t>
+  </si>
+  <si>
+    <t>MAYRA JANETH DEL RIO PEREZ</t>
+  </si>
+  <si>
+    <t>MARIA DEL ROSARIO GUZMAN BOLLAIN Y GOYTIA</t>
+  </si>
+  <si>
+    <t>VICTORIA ELOISA DE LA TORRE AGUILAR</t>
+  </si>
+  <si>
+    <t>JUAN CESAR REYNOSO MARQUEZ</t>
+  </si>
+  <si>
+    <t>JUAN DE DIOS MAGALLANES QUINTANAR</t>
+  </si>
+  <si>
+    <t>ARTURO BAUTISTA SANTIAGO</t>
+  </si>
+  <si>
+    <t>JOSE XERARDO RAMIREZ MUÑOZ</t>
+  </si>
+  <si>
+    <t>ROSAURA LORENZA ULLOA  DELGADO</t>
+  </si>
+  <si>
+    <t>ARTURO RAMOS  HERNANDEZ</t>
+  </si>
+  <si>
+    <t>ROBERTO RENE PEREZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>OMAR ABRAHAM SAUCEDO FLORES</t>
+  </si>
+  <si>
+    <t>OSWALDO ALEJANDRO QUINTERO GONZALEZ</t>
+  </si>
+  <si>
+    <t>LAURA ALEJANDRA RUELAS GUTIERREZ</t>
+  </si>
+  <si>
+    <t>JORGE ESCAREÑO BENITEZ</t>
+  </si>
+  <si>
+    <t>RICARDO YASSIN ESPINO</t>
+  </si>
+  <si>
+    <t>IRASEMA GARCIA MARQUEZ</t>
+  </si>
+  <si>
+    <t>SUBDIRECCION DE TECNOLOGIAS DE LA INFORMACION</t>
+  </si>
+  <si>
+    <t>HERIBERTO ORTEGA DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>SUBDIRECCIÓN DE PROMOCIÓN DE CRÉDITO</t>
+  </si>
+  <si>
+    <t>LAURA ROSA REYES HERRERA</t>
+  </si>
+  <si>
+    <t>SUBDIRECCIÓN DE CRÉDITO</t>
+  </si>
+  <si>
+    <t>FELIPE IGNACIO AVALOS PEREZ</t>
+  </si>
+  <si>
+    <t>SUBDIRECCIÓN DE RECUPERACIÓN DE CRÉDITO</t>
+  </si>
+  <si>
+    <t>ANA MA.GONZALEZ SOSA</t>
+  </si>
+  <si>
+    <t>SUBDIRECCIÓN DE CONTABILIDAD Y GESTIÓN</t>
+  </si>
+  <si>
+    <t>RUBEN DEL REAL MANZANAREZ</t>
+  </si>
+  <si>
+    <t>TITULAR</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN DE LA DIRECCIÓN O SUBDIRECCIÓN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,23 +295,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Century Gothic"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Century Gothic"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -151,7 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,13 +380,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,7 +671,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -470,285 +679,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.42578125" customWidth="1"/>
-    <col min="2" max="2" width="45.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="76" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
+      <c r="B33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>